--- a/EE_464K_Team_33_Partial_Budget_1-0.xlsx
+++ b/EE_464K_Team_33_Partial_Budget_1-0.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9540"/>
+    <workbookView xWindow="240" yWindow="40" windowWidth="20560" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Order List 2-9-15" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -171,8 +176,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -263,26 +268,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -291,7 +296,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -299,17 +304,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -319,7 +324,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -327,12 +332,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,34 +346,34 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,7 +394,7 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -695,24 +700,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -721,69 +726,69 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="19">
         <v>42044</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -809,7 +814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -833,7 +838,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -857,7 +862,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -881,7 +886,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -905,7 +910,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -929,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" s="4"/>
       <c r="F18" s="3"/>
       <c r="H18" s="22">
@@ -937,12 +942,12 @@
         <v>44.519999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" s="4"/>
       <c r="F19" s="3"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -950,7 +955,7 @@
       <c r="F20" s="3"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -976,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>56.699999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
       <c r="H24" s="22">
@@ -1038,11 +1043,11 @@
         <v>85.539999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="F25" s="3"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1056,7 @@
       <c r="F26" s="3"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1105,7 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1165,14 +1170,14 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="F32" s="3"/>
       <c r="H32" s="22">
         <f>SUM(H28:H31)</f>
         <v>101.17000000000002</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8">
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
       <c r="H33" s="1"/>
@@ -1188,5 +1193,10 @@
     <hyperlink ref="B23" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/EE_464K_Team_33_Partial_Budget_1-0.xlsx
+++ b/EE_464K_Team_33_Partial_Budget_1-0.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9540"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Order List 2-9-15" sheetId="1" r:id="rId1"/>
+    <sheet name="Next Order List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>LED Sockets</t>
   </si>
@@ -164,6 +165,24 @@
   </si>
   <si>
     <t>GroBot</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>X/X/2015</t>
+  </si>
+  <si>
+    <t>Digital Potentiometer ICs IC Dual 10-Bit SPI</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>AD5235BRUZ250</t>
+  </si>
+  <si>
+    <t>584-AD5235BRUZ250</t>
   </si>
 </sst>
 </file>
@@ -695,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,21 +770,27 @@
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,4 +1214,336 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="1">
+        <f>F13*G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H17" si="0">F14*G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="22">
+        <f>SUM(H13:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7.92</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <f>F22*G22</f>
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="1">
+        <f>F23*G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="22">
+        <f>SUM(H22:H23)</f>
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+      <c r="H32" s="22">
+        <f>SUM(H28:H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EE_464K_Team_33_Partial_Budget_1-0.xlsx
+++ b/EE_464K_Team_33_Partial_Budget_1-0.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Order List 2-9-15" sheetId="1" r:id="rId1"/>
-    <sheet name="Next Order List" sheetId="2" r:id="rId2"/>
+    <sheet name="Current Spent Budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
   <si>
     <t>LED Sockets</t>
   </si>
@@ -167,33 +167,49 @@
     <t>GroBot</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>X/X/2015</t>
-  </si>
-  <si>
-    <t>Digital Potentiometer ICs IC Dual 10-Bit SPI</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>AD5235BRUZ250</t>
-  </si>
-  <si>
-    <t>584-AD5235BRUZ250</t>
+    <t>SKU: LB2331</t>
+  </si>
+  <si>
+    <t>MR16 Energy Saving Light Bulb 5W Max 450LM 5-LED Warm White Light Bulb Spotlight (12V,3500~3800K) - See more at: http://www.lights-box.com/mr16-energy-saving-light-bulb-5w-max-450lm-5-led-warm-white-light-bulb-spotlight-12v-3500-3800k#sthash.3cpyfRH8.dpuf</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>SKU: LB2338</t>
+  </si>
+  <si>
+    <t>Energy Saving MR16 5W 12V Max 450LM 5-LED White Light LED Bulb (6000~7000K) - See more at: http://www.lights-box.com/energy-saving-mr16-5w-12v-max-450lm-5-led-white-light-led-bulb-6000-7000k#sthash.I5lEHL1w.dpuf</t>
+  </si>
+  <si>
+    <t>Total Cost w/ TI</t>
+  </si>
+  <si>
+    <t>Total Cost w/o TI</t>
+  </si>
+  <si>
+    <t>Lights-Box</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,8 +267,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -375,13 +403,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,6 +448,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -712,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,27 +815,21 @@
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,7 +969,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -954,20 +993,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="F18" s="3"/>
       <c r="H18" s="22">
         <f>SUM(H13:H17)</f>
         <v>44.519999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="F19" s="3"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -975,7 +1017,7 @@
       <c r="F20" s="3"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1070,7 @@
         <v>56.699999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1055,19 +1097,22 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
       <c r="H24" s="22">
         <f>SUM(H22:H23)</f>
         <v>85.539999999999992</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
@@ -1076,7 +1121,7 @@
       <c r="F26" s="3"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1120,12 +1165,15 @@
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="23">
         <f>F28*G28</f>
         <v>32.369999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1143,12 +1191,15 @@
       <c r="G29">
         <v>3</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="23">
         <f>F29*G29</f>
         <v>27.42</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1164,12 +1215,15 @@
       <c r="G30" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="23">
         <f>F30*G30</f>
         <v>27.42</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1189,18 +1243,78 @@
         <f>F31*G31</f>
         <v>13.96</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
       <c r="F32" s="3"/>
       <c r="H32" s="22">
         <f>SUM(H28:H31)</f>
         <v>101.17000000000002</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="25">
+        <v>6</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="26">
+        <v>5.89</v>
+      </c>
+      <c r="G34" s="26">
+        <f>C34*F34</f>
+        <v>35.339999999999996</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="25">
+        <v>6</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="26">
+        <v>5.8</v>
+      </c>
+      <c r="G35" s="26">
+        <f>C35*F35</f>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="28">
+        <f>SUM(G34:G35)</f>
+        <v>70.139999999999986</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1218,331 +1332,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3*G3</f>
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <f>F4*G4</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <f>F5*G5</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*G6</f>
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <f>F7*G7</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <f>F8*G8</f>
+        <v>56.699999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14.42</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <f>F9*G9</f>
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <f>F10*G10</f>
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11*F11</f>
+        <v>35.339999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="1">
-        <f>F13*G13</f>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12*F12</f>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="1">
-        <f t="shared" ref="H14:H17" si="0">F14*G14</f>
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="27">
+        <f>SUM(H3:H12)</f>
+        <v>214.16000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="22">
-        <f>SUM(H13:H17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7.92</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <f>F22*G22</f>
-        <v>15.84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="1">
-        <f>F23*G23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="22">
-        <f>SUM(H22:H23)</f>
-        <v>15.84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="3"/>
-      <c r="H32" s="22">
-        <f>SUM(H28:H31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="27">
+        <f>SUM(H8:H12)</f>
+        <v>169.64</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
